--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -803,30 +803,192 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>44805.42799498472</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>44805.42799498843</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>vbn1278</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>2.74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44806.67115123843</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>edu223</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44806.67537111111</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>wew344</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44806.67871225694</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>ssd33</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44806.68225763889</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>vinod234</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44806.68892793982</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>edu654</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44806.70102041208</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>e166</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>60</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -965,29 +965,56 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2022-09-02</t>
         </is>
       </c>
       <c r="B18" s="10" t="n">
-        <v>44806.70102041208</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>44806.70102041667</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>e166</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44810.94112326238</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>edu98</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>60</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -992,29 +992,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
       <c r="B19" s="10" t="n">
-        <v>44810.94112326238</v>
-      </c>
-      <c r="C19" t="inlineStr">
+        <v>44810.94112326389</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>edu98</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -1564,6 +1564,33 @@
       </c>
       <c r="G9" s="5" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44812.52689823115</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>educ166</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1016,6 +1016,114 @@
       </c>
       <c r="G19" s="5" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44819.62414569444</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>eduecs166</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44820.64496002315</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>fstcedu167</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44823.60046166667</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>scndedu167</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44824.38674135417</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>finaleduc167</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -1567,30 +1675,57 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>44812.52689823115</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44812.52689822917</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>educ166</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>60</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>1.06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44824.72934250939</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>betaedu167</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1124,6 +1124,168 @@
       </c>
       <c r="G23" s="5" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44830.69756832176</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>ecsedduu167</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44844.55187232639</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>educscnd168</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44845.4353296875</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>edufnlrun168</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44867.69911910879</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>eduscnd169</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44868.43750501157</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>educ169</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44893.50171113998</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>170edufiix</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -1702,30 +1864,192 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>44824.72934250939</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>44824.72934251157</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>betaedu167</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44824.88294335648</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>liveeduc167</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44845.54060134259</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>edubeta168</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44845.86540138889</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>edulive168</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44851.8093390162</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>eduhtfx168</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44868.54480844907</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>edubeta169</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44868.85214398148</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>edulive169</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1262,30 +1262,165 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>44893.50171113998</v>
-      </c>
-      <c r="C29" t="inlineStr">
+        <v>44893.50171113426</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>170edufiix</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>60</v>
-      </c>
-      <c r="E29" t="n">
-        <v>60</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="D29" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44894.41142725694</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>170edur</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44914.50728849537</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>educ171</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44939.43497270833</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>educ172htfx</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44945.77290770833</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>educ172scn</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44946.42704598379</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>educ172final</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -2050,6 +2185,141 @@
       </c>
       <c r="G17" s="5" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44894.52974428241</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>170betaedu</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44894.90277979166</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>170liveeduc</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44939.83954746528</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>edu172htfx</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44946.59395172454</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>edu172beta</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44946.92204515265</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>edu172live</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1421,6 +1421,60 @@
       </c>
       <c r="G34" s="5" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44974.45575663194</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>edu173fstccycle</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44977.42801012732</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>173educflow</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -2296,30 +2350,84 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B22" s="10" t="n">
-        <v>44946.92204515265</v>
-      </c>
-      <c r="C22" t="inlineStr">
+        <v>44946.92204515047</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>edu172live</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>60</v>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="D22" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>0.99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44977.61088517361</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>173eduflow</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44977.82648602864</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>173educlive</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1475,6 +1475,195 @@
       </c>
       <c r="G36" s="5" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>44994.5634352199</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>174educfstcyle</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>44998.44833234954</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>174eduflow</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45015.70149211805</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>175edusc</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45016.49520108796</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>175fnledu</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45016.71950912037</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>sadd</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45022.64281496528</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>176neweduc</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45023.66776613814</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>176fstedu</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>59</v>
+      </c>
+      <c r="E43" t="n">
+        <v>59</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -2404,30 +2593,165 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B24" s="10" t="n">
-        <v>44977.82648602864</v>
-      </c>
-      <c r="C24" t="inlineStr">
+        <v>44977.82648603009</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>173educlive</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>60</v>
-      </c>
-      <c r="E24" t="n">
-        <v>60</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="D24" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44998.55685114583</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>174betaeduc</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44998.85708618056</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>174liveeedu</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>45016.56578296296</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>175bted</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>45016.72568778935</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>175edy</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>45016.81429121528</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>175liveedu</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1640,30 +1640,57 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
       <c r="B43" s="10" t="n">
-        <v>45023.66776613814</v>
-      </c>
-      <c r="C43" t="inlineStr">
+        <v>45023.66776613426</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>176fstedu</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45034.51534990751</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>176edutrail</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>59</v>
+      </c>
+      <c r="E44" t="n">
+        <v>59</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1667,30 +1667,84 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B44" s="10" t="n">
-        <v>45034.51534990751</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>45034.51534990741</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>176edutrail</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45035.68419811343</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>176scnedu</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45036.40039732639</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>176fnledu</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +2034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -2779,6 +2833,87 @@
       </c>
       <c r="G29" s="5" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>45036.50375278935</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>176betaeduc</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>45043.46364931713</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>176liveedu</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>45044.69942811842</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>176fsteducation</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>59</v>
+      </c>
+      <c r="E32" t="n">
+        <v>59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1745,6 +1745,303 @@
       </c>
       <c r="G46" s="5" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45062.80866554398</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>177fsteduc</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45063.68367011574</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>177scndeduc</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45064.35634510417</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>177fnleduc</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45069.64807290509</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>177hftxedu</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45071.41622831018</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>178day1edu</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45071.47821768519</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>178day1eeduc</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45071.57534991898</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>178edudday</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45072.5210284838</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>178daytwoedu</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45075.45249274305</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>178daythreeedu</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45089.60619484953</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>178eduddy</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45089.6148461613</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>178ddyedu</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>59</v>
+      </c>
+      <c r="E57" t="n">
+        <v>59</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -2890,30 +3187,111 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B32" s="10" t="n">
-        <v>45044.69942811842</v>
-      </c>
-      <c r="C32" t="inlineStr">
+        <v>45044.69942811342</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>176fsteducation</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>59</v>
-      </c>
-      <c r="E32" t="n">
-        <v>59</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="D32" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>45064.52138472223</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>177betaeduc</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>45065.57034517361</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>177liveeducat</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45071.42651491898</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>178day1eud</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -2018,30 +2018,57 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B57" s="10" t="n">
-        <v>45089.6148461613</v>
-      </c>
-      <c r="C57" t="inlineStr">
+        <v>45089.6148461574</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>178ddyedu</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>59</v>
-      </c>
-      <c r="E57" t="n">
-        <v>59</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="D57" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45138.42191619213</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>180educ</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -3292,6 +3319,60 @@
       </c>
       <c r="G35" s="5" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45139.5405990625</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>180educa</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45139.86483763212</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>180liveeuc</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>59</v>
+      </c>
+      <c r="E37" t="n">
+        <v>59</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -2069,6 +2069,546 @@
       </c>
       <c r="G58" s="5" t="n">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45202.51968668981</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>183educscnd</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45203.49757634259</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>183fnledu</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45226.67187900463</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>184edufst</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>45229.38198971065</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>184edufnl</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45258.43923729167</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>185educ</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45259.3671674537</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>185edulst</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45275.73086745371</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>186educat</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45278.41426228009</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>186edufnl</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45299.70234628472</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>187fsteduc</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45301.3384105787</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>187edulst</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45307.64663601851</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>187htfedyuc</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="n">
+        <v>45323.65032032407</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>188edugfstcyc</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="n">
+        <v>45324.83587896991</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>188educscndcycl</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>45324.83860653935</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>188scndedu</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="n">
+        <v>45327.39781548611</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>188lsteduyc</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="n">
+        <v>45341.45359079861</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>188edufasdas</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="n">
+        <v>45357.65700478009</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>189fsteduc</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="n">
+        <v>45358.53636203703</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>189scndedu</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>45359.3392358912</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>189fnledu</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>45359.35324902778</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>189fnlleeddu</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -3349,30 +3889,516 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B37" s="10" t="n">
-        <v>45139.86483763212</v>
-      </c>
-      <c r="C37" t="inlineStr">
+        <v>45139.86483762731</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>180liveeuc</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>59</v>
-      </c>
-      <c r="E37" t="n">
-        <v>59</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="D37" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45203.51893229166</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>183betaeduc</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45203.92659060186</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>183liveeduc</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45203.92930412037</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>183lliveedu</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45229.63602461806</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>184edubeta</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45229.80353739583</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>184edulive</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45259.5760678588</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>185edubeta</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45259.89650707176</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>185edulive</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45278.56805193287</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>186betaedu</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45278.80491636574</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>186edulive</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45279.4909422338</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>186liveduc</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45301.55409925926</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>187betaedu</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45301.8719155787</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>187liveeduc</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45307.77397421296</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>187htfeduc</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45327.57255871528</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>188betaedu</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45327.8718855324</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>188liveduca</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45338.5503218287</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>188htxxedy</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45359.43665070602</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>189betaeduc</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45359.72687914392</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>189amseduc</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>59</v>
+      </c>
+      <c r="E55" t="n">
+        <v>59</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -2609,6 +2609,141 @@
       </c>
       <c r="G78" s="5" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="n">
+        <v>45379.52664880787</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>190edufst</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="n">
+        <v>45380.47385893518</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>19oscndeduc</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="n">
+        <v>45383.36600457176</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>190fnleduc</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="n">
+        <v>45414.46954642361</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>191fsteduc</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>45415.34302836806</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>191lsteduc</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -4375,29 +4510,137 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B55" s="10" t="n">
-        <v>45359.72687914392</v>
-      </c>
-      <c r="C55" t="inlineStr">
+        <v>45359.72687914352</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>189amseduc</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>59</v>
-      </c>
-      <c r="E55" t="n">
-        <v>59</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="D55" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45383.52683438658</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>190betaeduca</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45383.84862394676</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>190liveeduc</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45415.59368475695</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>191betaeduc</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45415.60218883884</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>191beteduca</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" t="n">
+        <v>59</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -3033,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -4618,30 +4618,57 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B59" s="10" t="n">
-        <v>45415.60218883884</v>
-      </c>
-      <c r="C59" t="inlineStr">
+        <v>45415.60218884259</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>191beteduca</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>59</v>
-      </c>
-      <c r="E59" t="n">
-        <v>59</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="D59" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45418.55839226021</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>191liveduca</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="n">
+        <v>59</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -2744,6 +2744,87 @@
       </c>
       <c r="G83" s="5" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>45467.41218734954</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>193fixeseduc</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="n">
+        <v>45481.7404597338</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>test1234</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>45482.72898212187</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>193edutest</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>59</v>
+      </c>
+      <c r="E86" t="n">
+        <v>59</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -4645,29 +4726,29 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B60" s="10" t="n">
-        <v>45418.55839226021</v>
-      </c>
-      <c r="C60" t="inlineStr">
+        <v>45418.55839225694</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>191liveduca</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>59</v>
-      </c>
-      <c r="E60" t="n">
-        <v>59</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="D60" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
         <v>1.6</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_EDUCATION_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -2801,30 +2801,84 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="5" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
       </c>
       <c r="B86" s="10" t="n">
-        <v>45482.72898212187</v>
-      </c>
-      <c r="C86" t="inlineStr">
+        <v>45482.72898211805</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
         <is>
           <t>193edutest</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>59</v>
-      </c>
-      <c r="E86" t="n">
-        <v>59</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="D86" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="n">
+        <v>45489.6324521875</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>194fsteduc</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B88" s="10" t="n">
+        <v>45491.35381111111</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>194fnleduc</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
@@ -3099,6 +3153,33 @@
       </c>
       <c r="G9" s="5" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>45491.63200212247</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>194betaeduc</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>59</v>
+      </c>
+      <c r="E10" t="n">
+        <v>59</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>
